--- a/doors_detection_long_term/scripts/results/faster_rcnn_ap_simulation.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_ap_simulation.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5491482103704918</t>
+          <t>0.5352988058387541</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5740229821470254</t>
+          <t>0.5697938909541654</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.24765024913766334</t>
+          <t>0.23840675090675095</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.42960045758553217</t>
+          <t>0.45716930732339073</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.16895109395109398</t>
+          <t>0.17884137803492642</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4614271461496844</t>
+          <t>0.4882702016177243</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.42307692307692313</t>
+          <t>0.4175824175824176</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5351750264277954</t>
+          <t>0.5807980075890575</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.509269929324141</t>
+          <t>0.5464014465285093</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.27105652530558744</t>
+          <t>0.2854321719514961</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.34618322692872555</t>
+          <t>0.38668125917223983</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.28011242260624103</t>
+          <t>0.2793342778120689</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.35835458031284156</t>
+          <t>0.3963804598315084</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.571574196368545</t>
+          <t>0.5894774977007531</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.49795987006138276</t>
+          <t>0.5247214393709982</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.41853407311725543</t>
+          <t>0.4272402251349126</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.27545766590389015</t>
+          <t>0.29719066886358325</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.4519280502256004</t>
+          <t>0.46655654741287</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.2808120232033276</t>
+          <t>0.28041990324599025</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.453127653447746</t>
+          <t>0.47667835595763136</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.21297182349813937</t>
+          <t>0.20623781676413244</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.42803128693211484</t>
+          <t>0.4560772221986863</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.29247858563715345</t>
+          <t>0.29148401525852513</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.6786859963999348</t>
+          <t>0.7391046964402394</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.2607582240625719</t>
+          <t>0.25799437442884293</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.6871214474008398</t>
+          <t>0.7116181430099278</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.4157318589476888</t>
+          <t>0.4162619463321461</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.5885641086472854</t>
+          <t>0.6746649996178105</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>213</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.38603697753182314</t>
+          <t>0.37991214275294033</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.5485054682171518</t>
+          <t>0.6256181468337276</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>195</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.48420283931740554</t>
+          <t>0.4817784763345991</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.47292669489613315</t>
+          <t>0.4978395224809179</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>128</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.48270002606248436</t>
+          <t>0.4895085729469737</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.4653075830029931</t>
+          <t>0.48905572077161896</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.46184391434531585</t>
+          <t>0.462531947591895</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.5640567085371978</t>
+          <t>0.5495170980059316</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.4988792010143748</t>
+          <t>0.5017590575420697</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.5987083092492884</t>
+          <t>0.585140449470158</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.7299068648057135</t>
+          <t>0.7469338877263085</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.7691303915457667</t>
+          <t>0.768842894496509</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.7451063068304047</t>
+          <t>0.7485433258811082</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.7756330665808091</t>
+          <t>0.7750346580761434</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.6296296296296297</t>
+          <t>0.8148148148148148</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.7878361181398338</t>
+          <t>0.8222853904139847</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3376,12 +3376,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.7018518518518518</t>
+          <t>0.8503086419753086</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.8370074570036412</t>
+          <t>0.8559265659391607</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8148148148148148</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.8045080038505843</t>
+          <t>0.840743545946394</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.7018518518518518</t>
+          <t>0.8503086419753086</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.8188894681934923</t>
+          <t>0.8565150080923</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.7407407407407407</t>
+          <t>0.8518518518518519</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.8549165965496965</t>
+          <t>0.9034594077728754</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.7407407407407407</t>
+          <t>0.9259259259259259</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3826,12 +3826,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.8838024064737503</t>
+          <t>0.903011974792871</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8503086419753086</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.8341599712635651</t>
+          <t>0.8533980968555529</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.7037037037037037</t>
+          <t>0.9259259259259259</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.8412510300651607</t>
+          <t>0.8511927447607476</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4076,12 +4076,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.6904064601396258</t>
+          <t>0.7368591234817455</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4176,12 +4176,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.5663807285546418</t>
+          <t>0.6175461175461177</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.7360993468886313</t>
+          <t>0.7759113695334832</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.6143664758707162</t>
+          <t>0.6892727360793772</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.5892334340610204</t>
+          <t>0.6391867326391576</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.6942974301392438</t>
+          <t>0.7437448653518338</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4476,12 +4476,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.27490347490347494</t>
+          <t>0.2972972972972973</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.7284933080462461</t>
+          <t>0.7464403437412547</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.6432432432432433</t>
+          <t>0.6643786643786646</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4626,12 +4626,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.8074909614473587</t>
+          <t>0.8293830661395819</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.6026426426426427</t>
+          <t>0.6156156156156156</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4726,12 +4726,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.7338477404403803</t>
+          <t>0.7597448392461202</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4776,12 +4776,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.5925243100243099</t>
+          <t>0.6415118548739236</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.7850296514303124</t>
+          <t>0.8137927889579776</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4876,12 +4876,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.7981170413112338</t>
+          <t>0.7879504228831036</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.8900092580034893</t>
+          <t>0.9153277007279809</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.8090671316477768</t>
+          <t>0.7956451749555202</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.8934436364378191</t>
+          <t>0.9207400292079713</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5076,12 +5076,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.6383970177073625</t>
+          <t>0.6553618134263297</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.8740503967325038</t>
+          <t>0.9099776533614157</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.8096752808597008</t>
+          <t>0.7969080911872674</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.8980858536712469</t>
+          <t>0.9353406219198137</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5276,12 +5276,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.8236607263634294</t>
+          <t>0.8156372198601934</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.9068621312215386</t>
+          <t>0.9469647912315557</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>136</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.838947321705942</t>
+          <t>0.8640438468024674</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.8929817432558367</t>
+          <t>0.93394477750906</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.841083391083391</t>
+          <t>0.8301806536101952</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.8934913699348098</t>
+          <t>0.9252712967522907</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.855905248878222</t>
+          <t>0.8526595358174307</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.921577431115893</t>
+          <t>0.9562335828872959</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.5000273035599478</t>
+          <t>0.5689456810194239</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0.5418764067072365</t>
+          <t>0.5933798700034458</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0.5289766349324022</t>
+          <t>0.6029491344726025</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.5756065389974092</t>
+          <t>0.5477692018571467</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0.6232797619508571</t>
+          <t>0.6830149020514924</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0.6673433520065364</t>
+          <t>0.74736907546925</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0.613477241895104</t>
+          <t>0.6824492671075898</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6376,12 +6376,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0.2923076923076923</t>
+          <t>0.3403846153846154</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0.5890084753150606</t>
+          <t>0.6623232157321043</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0.7627588402969963</t>
+          <t>0.8489241967182617</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>112</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0.760121057544057</t>
+          <t>0.8588950998181404</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0.3076923076923077</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0.6442497403247099</t>
+          <t>0.72111457538855</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6776,12 +6776,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0.7150586655731166</t>
+          <t>0.8206662071955868</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6876,12 +6876,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0.7626966939467038</t>
+          <t>0.8768811579232403</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6976,12 +6976,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0.7799820436009312</t>
+          <t>0.8922915273353298</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7076,12 +7076,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0.7605357646722873</t>
+          <t>0.8782012427743537</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0.7785260738531495</t>
+          <t>0.8896101559009175</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0.7355300079577989</t>
+          <t>0.731722611004842</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0.49166912359626225</t>
+          <t>0.5601354463288838</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7376,12 +7376,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0.7093166173356926</t>
+          <t>0.734275032616747</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>112</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0.6703963557098488</t>
+          <t>0.7349714427967473</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7476,12 +7476,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>158</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0.7384721292701951</t>
+          <t>0.7532031561301739</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7526,12 +7526,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0.4211814490730583</t>
+          <t>0.47888798791957204</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0.7547666609829092</t>
+          <t>0.7850736777798221</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7626,12 +7626,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0.6517827358917757</t>
+          <t>0.695519959066052</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7676,12 +7676,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>151</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0.7722069218417058</t>
+          <t>0.7820182919433133</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7726,12 +7726,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0.6368183292896078</t>
+          <t>0.6819049603032374</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7776,12 +7776,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>141</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0.8141338095826276</t>
+          <t>0.8333366628662615</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0.6383331775707783</t>
+          <t>0.6893399951269934</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7876,12 +7876,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0.7511632568936483</t>
+          <t>0.7564509050389574</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7926,12 +7926,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0.655330229037797</t>
+          <t>0.7164810883213358</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7976,12 +7976,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>147</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0.8134917819450868</t>
+          <t>0.8187586344002047</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0.6554221367496339</t>
+          <t>0.7037544607118708</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8076,12 +8076,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0.8818030532556379</t>
+          <t>0.8953931554624495</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0.6867002111805848</t>
+          <t>0.7360708746384298</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>147</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0.9028287860214042</t>
+          <t>0.907968158782354</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0.7316874869849916</t>
+          <t>0.8070071130631614</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>158</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0.8778393153148757</t>
+          <t>0.8888074555582658</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8326,12 +8326,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0.7028589989221118</t>
+          <t>0.7773549716843351</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>155</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0.892893453591955</t>
+          <t>0.905885551398096</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>136</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>0.7627490646800809</t>
+          <t>0.8431611728103418</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8476,12 +8476,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>166</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>0.8714977415808067</t>
+          <t>0.8835458904326412</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8526,12 +8526,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0.7218791592098356</t>
+          <t>0.8243140528901803</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8576,12 +8576,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0.8848268863793224</t>
+          <t>0.9044441132806127</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8626,12 +8626,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0.6880432345974437</t>
+          <t>0.7764950537167628</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>147</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>0.8672724271888632</t>
+          <t>0.8793112878944468</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8726,12 +8726,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>0.7462532494588037</t>
+          <t>0.8521163130478716</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>167</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>0.9117771886025643</t>
+          <t>0.9368698745315968</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8826,12 +8826,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>141</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>0.7116526484673786</t>
+          <t>0.7964925212552472</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8876,12 +8876,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>154</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>0.577584372283702</t>
+          <t>0.5722453749509253</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>0.6793048418193134</t>
+          <t>0.6988974297273916</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8976,12 +8976,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>0.7705266861651895</t>
+          <t>0.7667245993249323</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>0.7199123420955567</t>
+          <t>0.7869932303128431</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9076,12 +9076,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>0.6043418321170878</t>
+          <t>0.5984081202808055</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>0.5745035426359938</t>
+          <t>0.6404730161551643</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>0.7268106476584311</t>
+          <t>0.7157518091845176</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>0.6978072279660581</t>
+          <t>0.7319501603603789</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9276,12 +9276,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>0.7742427108466426</t>
+          <t>0.7721773006414534</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>0.7173276750814285</t>
+          <t>0.8248426500693032</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9376,12 +9376,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>0.8735910254582488</t>
+          <t>0.8733782115200424</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>0.7391096316258471</t>
+          <t>0.8665000163419088</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>0.8111459650027207</t>
+          <t>0.8088402879674506</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>0.6947746213694105</t>
+          <t>0.7574945567165134</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9576,12 +9576,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0.8600680834688635</t>
+          <t>0.8597983399905228</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>0.6990134264003328</t>
+          <t>0.8216571363027751</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9676,12 +9676,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>0.7044266450296531</t>
+          <t>0.8609196615941812</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>0.769863382099828</t>
+          <t>0.8960661120258311</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9876,12 +9876,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>0.9245641257563463</t>
+          <t>0.9241075774737112</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>0.7435072849597681</t>
+          <t>0.8679499297388811</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>0.7577354874041622</t>
+          <t>0.8963072200656415</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -10076,12 +10076,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>0.9505428607278087</t>
+          <t>0.9604260387084285</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>0.7767491608223939</t>
+          <t>0.8945539272062758</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>0.9813931081402967</t>
+          <t>0.9918274720223076</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0.7819290161730345</t>
+          <t>0.9134451339191352</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10276,12 +10276,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0.9679400015358376</t>
+          <t>0.9676482239782741</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0.7500270802700384</t>
+          <t>0.9138301849560678</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10376,12 +10376,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>0.7796785145873202</t>
+          <t>0.8980490213504458</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10476,12 +10476,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>0.7045780124297479</t>
+          <t>0.7043943399645396</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>0.4250816470783609</t>
+          <t>0.4343983199754878</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10576,12 +10576,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>0.7724073670074807</t>
+          <t>0.771333008073037</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0.5003817159470253</t>
+          <t>0.5187632745573867</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>0.6754616295228627</t>
+          <t>0.6853161135989261</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>0.3769165034462176</t>
+          <t>0.3866067563589769</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10776,12 +10776,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>0.6033917809515835</t>
+          <t>0.6489928362344154</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>0.8061590488549257</t>
+          <t>0.8143824975444404</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>0.553693098410952</t>
+          <t>0.6320979332790067</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10976,12 +10976,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>0.7873052760188666</t>
+          <t>0.8059728994621096</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -11026,12 +11026,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>0.6508888209081891</t>
+          <t>0.6849275403657026</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11076,12 +11076,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>0.792206456598856</t>
+          <t>0.7921222154431864</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>0.4079192546583853</t>
+          <t>0.5146245059288539</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11176,12 +11176,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>0.758436539883222</t>
+          <t>0.7843423120996652</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -11226,12 +11226,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>0.618146247895337</t>
+          <t>0.6736509992204096</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -11276,12 +11276,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>0.8554559910772599</t>
+          <t>0.8648767467271131</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -11326,12 +11326,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>0.637566147501136</t>
+          <t>0.7233396283123168</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -11376,12 +11376,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>0.8577899989086103</t>
+          <t>0.8863190030897143</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>0.769425784744697</t>
+          <t>0.8219367752738619</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11476,12 +11476,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -11516,7 +11516,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>0.8767834821055285</t>
+          <t>0.8851571279692554</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11526,12 +11526,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>0.6221625409807736</t>
+          <t>0.7182444763226452</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>0.8155675393066819</t>
+          <t>0.8627526368183954</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>0.7538733126158017</t>
+          <t>0.8001590482243129</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11676,12 +11676,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>0.9081240848401922</t>
+          <t>0.9434738353085252</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11726,12 +11726,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>0.7748956970161452</t>
+          <t>0.8729148116500663</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11776,12 +11776,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>0.8877033616933137</t>
+          <t>0.935043609111903</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11826,7 +11826,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>0.8013678740548497</t>
+          <t>0.8835819611885942</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11876,12 +11876,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>0.9017069729670013</t>
+          <t>0.9199204782840271</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11926,12 +11926,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>0.7753294981831929</t>
+          <t>0.8788180329599999</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11976,12 +11976,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>0.9271709092802439</t>
+          <t>0.9457711546500434</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -12026,12 +12026,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>0.7579937436916843</t>
+          <t>0.8580279646362526</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -12076,12 +12076,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>0.602918425726197</t>
+          <t>0.6342704584917733</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -12176,12 +12176,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>164</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>0.6596389580899715</t>
+          <t>0.7053734549412732</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -12276,12 +12276,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>168</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>0.3689204680977937</t>
+          <t>0.3659989539257831</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>0.6621333369578088</t>
+          <t>0.7017572982979878</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -12376,12 +12376,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>0.38035067271909373</t>
+          <t>0.3774704308037643</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>0.6944519155464935</t>
+          <t>0.7546392846989083</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -12476,12 +12476,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>0.38272906675317314</t>
+          <t>0.3796944583222599</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>0.646820257586135</t>
+          <t>0.6959191526520871</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>169</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>0.7389007445611947</t>
+          <t>0.789627339917789</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12676,12 +12676,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>186</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>0.6798499353981873</t>
+          <t>0.738534424964428</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12776,12 +12776,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>177</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>0.462184263926254</t>
+          <t>0.46244191287955516</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>0.745745314741727</t>
+          <t>0.8020602522572645</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -12876,12 +12876,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>188</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>0.6416653300620302</t>
+          <t>0.6293360624882363</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -12926,12 +12926,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>0.7444744980419362</t>
+          <t>0.7840525008922538</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -12976,12 +12976,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>0.6440547516436195</t>
+          <t>0.6702669081019215</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -13026,12 +13026,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>0.7785590087900665</t>
+          <t>0.8450728269136207</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -13076,12 +13076,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>191</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>0.5931103580808542</t>
+          <t>0.6028749795385336</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -13126,12 +13126,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>0.7945236672970643</t>
+          <t>0.8693164591944199</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -13176,12 +13176,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>0.7159493284493286</t>
+          <t>0.7397473281142611</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -13226,12 +13226,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>0.7732787284221773</t>
+          <t>0.8364834945536117</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -13276,12 +13276,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>189</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>0.7675233362200782</t>
+          <t>0.8445009789392516</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -13326,12 +13326,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>0.7733511027476407</t>
+          <t>0.8587532943768159</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -13376,12 +13376,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>194</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>0.7004056571815714</t>
+          <t>0.8108941320636003</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -13426,12 +13426,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>0.8315528531668578</t>
+          <t>0.9143504881099556</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -13476,12 +13476,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>205</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -13516,7 +13516,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>0.7001862146804955</t>
+          <t>0.7611261249935057</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -13526,12 +13526,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>0.7953063510344386</t>
+          <t>0.8598074822339996</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -13576,12 +13576,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>193</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>0.7872384041636882</t>
+          <t>0.8618050009841688</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -13626,12 +13626,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>0.8352644285327424</t>
+          <t>0.9271872391683321</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -13676,12 +13676,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>0.49043357527842096</t>
+          <t>0.48834380892659207</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>0.5583812172170434</t>
+          <t>0.597776639071938</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -13776,12 +13776,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>0.5617066563467492</t>
+          <t>0.5584925838050837</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>0.5524193954996072</t>
+          <t>0.5760757659548398</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -13876,12 +13876,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>0.46252488046886564</t>
+          <t>0.504085229724092</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -13976,12 +13976,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -14066,7 +14066,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>0.6123993145052673</t>
+          <t>0.6179904595583627</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -14076,12 +14076,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>0.5648664485287292</t>
+          <t>0.5804437379843884</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>0.5689711135719349</t>
+          <t>0.6012129613324657</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -14176,12 +14176,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>0.6094347272655123</t>
+          <t>0.6626691392439559</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>0.6907920509981391</t>
+          <t>0.7040109335078019</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -14326,12 +14326,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>0.520235407431008</t>
+          <t>0.5605208066085954</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -14376,12 +14376,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>0.6060023810725375</t>
+          <t>0.6437351419045443</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -14476,12 +14476,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>0.8032023694035341</t>
+          <t>0.8140281275743779</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -14526,12 +14526,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -14566,7 +14566,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>0.6315160756744188</t>
+          <t>0.6915638631227385</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -14576,12 +14576,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>0.8285730994152047</t>
+          <t>0.843502017756255</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14626,12 +14626,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -14666,7 +14666,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>0.6859920840709329</t>
+          <t>0.7317611315507053</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -14676,12 +14676,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>0.7445742485028201</t>
+          <t>0.7582415089153636</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -14726,12 +14726,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14766,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>0.6060655737704919</t>
+          <t>0.6403815579383765</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -14776,12 +14776,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>0.6588326532741751</t>
+          <t>0.7072020726151493</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -14876,12 +14876,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>0.819591050803696</t>
+          <t>0.8348672508039255</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -14926,12 +14926,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>0.7331532409854938</t>
+          <t>0.7715061319477271</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -14976,12 +14976,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>0.8892407977558839</t>
+          <t>0.9183349906421088</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -15026,12 +15026,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>0.8018336645736371</t>
+          <t>0.8592677632991627</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -15076,12 +15076,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>0.7979952832447383</t>
+          <t>0.8129177688387303</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -15126,7 +15126,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>0.7483723193984533</t>
+          <t>0.8075720777367975</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -15176,12 +15176,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15216,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>0.8351928718756804</t>
+          <t>0.8507524221809933</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>0.8147816012444673</t>
+          <t>0.8838807591988714</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -15276,12 +15276,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>0.49649453604024213</t>
+          <t>0.564061136405794</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -15326,12 +15326,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15366,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>0.626265846026827</t>
+          <t>0.6935118609184331</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -15376,12 +15376,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>0.6172171606711774</t>
+          <t>0.6511693149077213</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -15426,12 +15426,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>0.6911008993452408</t>
+          <t>0.7871263996391218</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -15476,12 +15476,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>228</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>0.4977008893423155</t>
+          <t>0.5681931721978581</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -15526,12 +15526,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>0.6393374358647689</t>
+          <t>0.7136538588804546</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -15576,12 +15576,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>216</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>0.6164178415751027</t>
+          <t>0.6472919390445109</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -15626,12 +15626,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>0.6674289628974023</t>
+          <t>0.7544902387889092</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -15676,12 +15676,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>0.6809995405514462</t>
+          <t>0.7463577414472804</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -15726,12 +15726,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>0.6721050196419899</t>
+          <t>0.7523329583582118</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -15776,12 +15776,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>214</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>0.6975152765909056</t>
+          <t>0.7314715212626196</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -15826,12 +15826,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>0.6820221522276841</t>
+          <t>0.7761556314027368</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -15876,12 +15876,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15916,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>0.7025069491719209</t>
+          <t>0.7638997655154443</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -15926,12 +15926,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15966,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>0.6461677160115042</t>
+          <t>0.7534405979052078</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -15976,12 +15976,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>215</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>0.767380856930891</t>
+          <t>0.7993063176649724</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -16026,12 +16026,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>0.6891850597468782</t>
+          <t>0.7788539316940376</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -16076,12 +16076,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>220</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>0.7871231361724755</t>
+          <t>0.8262257096405128</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -16126,12 +16126,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>0.7578837263527789</t>
+          <t>0.8718350184020875</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -16176,12 +16176,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -16216,7 +16216,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>0.7620832775471951</t>
+          <t>0.8333342961873867</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -16226,12 +16226,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16266,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>0.776823116416357</t>
+          <t>0.888128522020937</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -16276,12 +16276,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>247</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -16316,7 +16316,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>0.7459546373990571</t>
+          <t>0.7860052299756076</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -16326,12 +16326,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>0.7563498925928566</t>
+          <t>0.8635950770392837</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -16376,12 +16376,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>244</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>0.8245613279558673</t>
+          <t>0.8554906403989143</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -16426,12 +16426,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>0.7760214594151302</t>
+          <t>0.8953483418135714</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -16476,12 +16476,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>250</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>0.8206792013034411</t>
+          <t>0.8706505861082178</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -16526,12 +16526,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>0.7403913275904641</t>
+          <t>0.8495910815689155</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -16576,12 +16576,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>236</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>0.8024312875959846</t>
+          <t>0.8632772321674685</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>0.766936081012616</t>
+          <t>0.8962712054096236</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>0.8411633259292954</t>
+          <t>0.8602521115859285</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -16726,12 +16726,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -16766,7 +16766,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>0.7318565074093831</t>
+          <t>0.8465935029849567</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -16776,12 +16776,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>234</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -16816,7 +16816,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>0.8510151544143109</t>
+          <t>0.8904837656522614</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -16826,12 +16826,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>0.7559569323280224</t>
+          <t>0.8823355880478035</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -16876,12 +16876,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>242</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>0.5453748204872646</t>
+          <t>0.554172613837906</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -16926,12 +16926,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>0.5625601274732867</t>
+          <t>0.5912639038714884</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -16976,12 +16976,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>165</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>0.7568071316802915</t>
+          <t>0.765746993422212</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -17026,12 +17026,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -17066,7 +17066,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>0.6582332455822868</t>
+          <t>0.666952643650935</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -17076,12 +17076,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>172</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -17116,7 +17116,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>0.5639679893990239</t>
+          <t>0.6036859187702902</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -17126,12 +17126,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17166,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>0.5969728262035089</t>
+          <t>0.6450191019115387</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>0.8014102935799136</t>
+          <t>0.8123724515688155</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -17226,12 +17226,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>0.6645783944359028</t>
+          <t>0.6939101053571807</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -17276,12 +17276,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17316,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>0.7064213939213941</t>
+          <t>0.6967567988932308</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>0.6927475926745219</t>
+          <t>0.7170451318033734</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -17376,12 +17376,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>183</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -17416,7 +17416,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>0.8067778965334073</t>
+          <t>0.8002236863901254</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -17426,12 +17426,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17466,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>0.7277579514504848</t>
+          <t>0.7574355702757924</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -17476,12 +17476,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>185</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>0.6527228447960153</t>
+          <t>0.6590534270336639</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -17526,12 +17526,12 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -17566,7 +17566,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>0.6774870817125674</t>
+          <t>0.6957827350343003</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>179</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>0.7109877734877731</t>
+          <t>0.7619085541660305</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -17626,12 +17626,12 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>0.7185917161898676</t>
+          <t>0.7469108890325248</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -17676,12 +17676,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>181</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>0.7902605732885387</t>
+          <t>0.789630702391613</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17766,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>0.8242435223315607</t>
+          <t>0.8464674613733176</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -17776,12 +17776,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>0.8097031457687198</t>
+          <t>0.8219471992153443</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -17826,12 +17826,12 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>0.8620085789168909</t>
+          <t>0.8857061129522372</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>204</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>0.7948320547760132</t>
+          <t>0.8202666405798889</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -17926,12 +17926,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>0.8381773010536168</t>
+          <t>0.8441865547710116</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -17976,12 +17976,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>199</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -18016,7 +18016,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>0.848835848835849</t>
+          <t>0.8749304516967562</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -18026,12 +18026,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18066,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>0.8294601277183864</t>
+          <t>0.847824562081915</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -18076,12 +18076,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>195</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -18116,7 +18116,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>0.8505067567567566</t>
+          <t>0.8883002918767294</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -18126,12 +18126,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -18166,7 +18166,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>0.9162217518208113</t>
+          <t>0.9235082836718853</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -18176,12 +18176,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18216,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>0.8648648648648649</t>
+          <t>0.9314671814671817</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -18226,12 +18226,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>0.8945305299491131</t>
+          <t>0.9165289275775387</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -18276,12 +18276,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>207</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>0.8492398648648645</t>
+          <t>0.8479134979134977</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -18331,7 +18331,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18366,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>0.8666519415110782</t>
+          <t>0.9051791802096932</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -18376,12 +18376,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>208</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>0.8910849352025823</t>
+          <t>0.9295694849428209</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -18426,12 +18426,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>0.8812725687786831</t>
+          <t>0.9050342392047974</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -18476,12 +18476,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>204</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
     </row>
